--- a/Exp1/Prac_Order.xlsx
+++ b/Exp1/Prac_Order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Documents/research/FatFaceIllusion/program/Exp1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Documents/GitHub/FatFace/Exp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC7AE6-67A8-0847-A3EF-D97E593B7B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE607E11-9E71-1D4F-8B8B-8CF64AD70353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="740" windowWidth="24540" windowHeight="14000" xr2:uid="{D35D448A-7FFE-0246-8248-EAE779FEDAF7}"/>
+    <workbookView xWindow="1060" yWindow="1040" windowWidth="24540" windowHeight="14000" xr2:uid="{D35D448A-7FFE-0246-8248-EAE779FEDAF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,33 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>materials/Asian/Female/S_A_F_01_250.png</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>materials/Asian/Male/L_A_M_02_270.png</t>
-  </si>
-  <si>
-    <t>materials/Asian/Male/S_A_M_02_250.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>DLU</t>
   </si>
   <si>
-    <t>materials/Caucasian/Female/S_C_F_05_250.png</t>
-  </si>
-  <si>
-    <t>materials/Caucasian/Female/L_C_F_05_270.png</t>
-  </si>
-  <si>
     <t>DLD</t>
-  </si>
-  <si>
-    <t>materials/Caucasian/Male/S_C_M_07_250.png</t>
   </si>
   <si>
     <t>UImage</t>
@@ -67,6 +46,22 @@
   </si>
   <si>
     <t>LImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials/Practice/001.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials/Practice/002.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,12 +87,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -125,14 +114,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,70 +438,70 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>